--- a/piecewise_fitting_function/1.xlsx
+++ b/piecewise_fitting_function/1.xlsx
@@ -460,25 +460,25 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>4.162689207740796</v>
+        <v>3.711217991874068</v>
       </c>
       <c r="D4">
-        <v>3.930941126216942</v>
+        <v>4.731628545565764</v>
       </c>
       <c r="E4">
-        <v>3.550362171769197</v>
+        <v>1.303909803407439</v>
       </c>
       <c r="F4">
-        <v>-5.127522897933395</v>
+        <v>-5.396702165027743</v>
       </c>
       <c r="G4">
-        <v>13.91305602806951</v>
+        <v>3.586537847099794</v>
       </c>
       <c r="H4">
-        <v>1.124643621454835</v>
+        <v>0.5710069134352844</v>
       </c>
       <c r="I4">
-        <v>0.8474246978706333</v>
+        <v>0.9533547049130005</v>
       </c>
     </row>
   </sheetData>
